--- a/文档维护/数据结构.xlsx
+++ b/文档维护/数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="13680" windowHeight="7650" tabRatio="875"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="13680" windowHeight="7620" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="数据结构" sheetId="97" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="102">
   <si>
     <t>Uniqueidentifier</t>
   </si>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>PageNum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -277,14 +273,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ds_EntityPage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ds_EntityRenter2Template</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>是否末级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -415,6 +403,34 @@
   <si>
     <t>应用大数据量提取场景，防止单字段过长</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageNum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始页面顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageNum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_EntityPage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalPageNum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_EntityRenter2Template</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1162,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H94"/>
+  <dimension ref="B4:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1340,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>0</v>
@@ -1376,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
@@ -1402,7 +1418,7 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -1481,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>0</v>
@@ -1498,10 +1514,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
@@ -1512,16 +1528,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -1531,16 +1547,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
@@ -1561,7 +1577,7 @@
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -1574,7 +1590,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -1620,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>0</v>
@@ -1637,16 +1653,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
@@ -1673,16 +1689,16 @@
         <v>4</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
@@ -1692,16 +1708,16 @@
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
@@ -1711,16 +1727,16 @@
         <v>6</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
@@ -1730,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
@@ -1819,7 +1835,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>0</v>
@@ -1833,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>13</v>
@@ -1850,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>20</v>
@@ -1867,17 +1883,17 @@
         <v>4</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H52" s="10"/>
     </row>
@@ -1909,7 +1925,7 @@
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="19" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -1955,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>0</v>
@@ -1972,10 +1988,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>0</v>
@@ -1989,16 +2005,16 @@
         <v>3</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
@@ -2008,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>13</v>
@@ -2025,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>20</v>
@@ -2042,16 +2058,16 @@
         <v>6</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
@@ -2061,17 +2077,17 @@
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H65" s="10"/>
     </row>
@@ -2081,7 +2097,7 @@
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
@@ -2094,7 +2110,7 @@
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="19" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
@@ -2143,7 +2159,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>0</v>
@@ -2157,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>0</v>
@@ -2177,10 +2193,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="9"/>
@@ -2191,16 +2207,16 @@
         <v>4</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="10"/>
@@ -2210,40 +2226,44 @@
         <v>5</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="22" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B77" s="5">
+        <v>5</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80" s="22" t="s">
         <v>2</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="17" t="s">
-        <v>3</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -2252,290 +2272,283 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B81" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
+      <c r="D81" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="5">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B84" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="9"/>
       <c r="H84" s="10"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B85" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G85" s="9"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B86" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F86" s="8"/>
       <c r="G86" s="9"/>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B87" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B88" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B89" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="9"/>
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B91" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
+      <c r="G91" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B92" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F92" s="8"/>
-      <c r="G92" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="G92" s="9"/>
       <c r="H92" s="10"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B93" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="9"/>
       <c r="H93" s="10"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B94" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="5">
+        <v>12</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:H81"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:H69"/>
     <mergeCell ref="B45:C45"/>
@@ -2548,18 +2561,38 @@
     <mergeCell ref="D55:H55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:H56"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:H81"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E9 E25:E30 E36:E43 E49:E53 E16:E19 E59:E65 E72:E76 E83:E94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E9 E25:E30 E36:E43 E49:E53 E16:E19 E59:E65 E84:E95 E72:E77">
       <formula1>"Uniqueidentifier,varchar,money,datetime,text,int,tinyint"</formula1>
     </dataValidation>
   </dataValidations>
